--- a/biology/Botanique/Esplanade_du_Souvenir-Français/Esplanade_du_Souvenir-Français.xlsx
+++ b/biology/Botanique/Esplanade_du_Souvenir-Français/Esplanade_du_Souvenir-Français.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esplanade_du_Souvenir-Fran%C3%A7ais</t>
+          <t>Esplanade_du_Souvenir-Français</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esplanade du Souvenir-Français est une voie située dans le quartier de l'École-Militaire du 7e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esplanade_du_Souvenir-Fran%C3%A7ais</t>
+          <t>Esplanade_du_Souvenir-Français</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'esplanade du Souvenir-Français est desservie à proximité par la ligne 13 à la station Saint-François-Xavier.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esplanade_du_Souvenir-Fran%C3%A7ais</t>
+          <t>Esplanade_du_Souvenir-Français</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte le nom de l'association Le Souvenir français, fondée en 1887 après la guerre franco-prussienne de 1870 pour perpétuer la mémoire des morts français du conflit, en raison de sa proximité avec l'École militaire.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esplanade_du_Souvenir-Fran%C3%A7ais</t>
+          <t>Esplanade_du_Souvenir-Français</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie est créée en 1987 sur le terre-plein central de l'avenue de Breteuil pour le centenaire de l'association Le Souvenir français.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esplanade_du_Souvenir-Fran%C3%A7ais</t>
+          <t>Esplanade_du_Souvenir-Français</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'esplanade donne sur l'église Saint-François-Xavier et débouche sur les Invalides.</t>
         </is>
